--- a/Misc/rawData/FX SS library data 200218.xlsx
+++ b/Misc/rawData/FX SS library data 200218.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leele\Documents\sst\leeProcessing\rawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\transcriptomePharmer\Misc\rawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA4160B-F397-4614-97D5-C89C9D517C46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B042B5-9971-4100-9FEF-A2A0277CA66E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34275" yWindow="750" windowWidth="19380" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FX SS library data" sheetId="1" r:id="rId1"/>
@@ -386,27 +386,15 @@
     <t>Lib-33</t>
   </si>
   <si>
-    <t>M4a.1</t>
-  </si>
-  <si>
     <t>Lib-34</t>
   </si>
   <si>
-    <t>M4a.2</t>
-  </si>
-  <si>
     <t>Lib-35</t>
   </si>
   <si>
-    <t>Control.1</t>
-  </si>
-  <si>
     <t>Lib-36</t>
   </si>
   <si>
-    <t>Control.2</t>
-  </si>
-  <si>
     <t>lib-38</t>
   </si>
   <si>
@@ -1407,6 +1395,18 @@
   </si>
   <si>
     <t>label_cellType_numeric</t>
+  </si>
+  <si>
+    <t>R3J</t>
+  </si>
+  <si>
+    <t>pl14a_R3J</t>
+  </si>
+  <si>
+    <t>M4a</t>
+  </si>
+  <si>
+    <t>Control</t>
   </si>
 </sst>
 </file>
@@ -2308,14 +2308,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
@@ -2506,6 +2498,14 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
@@ -2592,22 +2592,22 @@
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Lane" dataDxfId="26"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Processing" dataDxfId="25"/>
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="label_experiment" dataDxfId="24"/>
-    <tableColumn id="46" xr3:uid="{C5C0088E-8A9C-4AEC-8DF4-9938AFFE4F61}" name="label_cellType_numeric" dataDxfId="0"/>
+    <tableColumn id="46" xr3:uid="{C5C0088E-8A9C-4AEC-8DF4-9938AFFE4F61}" name="label_cellType_numeric" dataDxfId="23"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="label_cellType"/>
-    <tableColumn id="45" xr3:uid="{997DCF0D-B83F-49B0-8F8D-BA027B61B8B1}" name="label_subClass" dataDxfId="23"/>
+    <tableColumn id="45" xr3:uid="{997DCF0D-B83F-49B0-8F8D-BA027B61B8B1}" name="label_subClass" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date of cDNA prep"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="rd.name" dataDxfId="22"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Cell name" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{066BF7C7-BF36-4BE5-B26E-0B1A05699369}" name="Multiple cells" dataDxfId="20"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="rd.name" dataDxfId="21"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Cell name" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{066BF7C7-BF36-4BE5-B26E-0B1A05699369}" name="Multiple cells" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tube #"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Prep Time"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Traces Acquired" dataDxfId="19"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Traces Acquired" dataDxfId="18"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Experiment Duration (min)"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Mouse Age"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Number of cells"/>
     <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="cdna raw"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="cDNA conc ug/mL" dataDxfId="18"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="qpcr" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="cDNA conc ug/mL" dataDxfId="17"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="qpcr" dataDxfId="16"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ng cDNA to Frag. Rxn"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="uL cDNA to Frag. Rxn"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="dH2O to 10 uL"/>
@@ -2615,22 +2615,22 @@
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="D50X barcode name"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="D50X barcode sequence"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="D70X barcode name"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="D70X barcode sequence" dataDxfId="16"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="% Genes with Counts" dataDxfId="15"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Chrs Covered" dataDxfId="14"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="% Alignable" dataDxfId="13"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="% Assigned" dataDxfId="12"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="M Assigned" dataDxfId="11"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="% rRNA" dataDxfId="10"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="% mRNA" dataDxfId="9"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="% Aligned" dataDxfId="8"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="M Aligned" dataDxfId="7"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="% Trimmed" dataDxfId="6"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="% Dups" dataDxfId="5"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="% GC" dataDxfId="4"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Length" dataDxfId="3"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="% Failed" dataDxfId="2"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="M Seqs" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="D70X barcode sequence" dataDxfId="15"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="% Genes with Counts" dataDxfId="14"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Chrs Covered" dataDxfId="13"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="% Alignable" dataDxfId="12"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="% Assigned" dataDxfId="11"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="M Assigned" dataDxfId="10"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="% rRNA" dataDxfId="9"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="% mRNA" dataDxfId="8"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="% Aligned" dataDxfId="7"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="M Aligned" dataDxfId="6"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="% Trimmed" dataDxfId="5"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="% Dups" dataDxfId="4"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="% GC" dataDxfId="3"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Length" dataDxfId="2"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="% Failed" dataDxfId="1"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="M Seqs" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2938,11 +2938,11 @@
   </sheetPr>
   <dimension ref="A1:AT148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E113" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H149" sqref="H149"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2999,28 +2999,28 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="J1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="79" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O1" t="s">
         <v>6</v>
@@ -3041,7 +3041,7 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>13</v>
@@ -3074,49 +3074,49 @@
         <v>22</v>
       </c>
       <c r="AF1" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG1" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH1" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI1" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ1" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="AK1" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="AH1" s="34" t="s">
+      <c r="AL1" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AM1" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="AJ1" s="34" t="s">
+      <c r="AN1" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AO1" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="AL1" s="34" t="s">
+      <c r="AP1" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="AM1" s="34" t="s">
+      <c r="AQ1" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="AN1" s="34" t="s">
+      <c r="AR1" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="AO1" s="34" t="s">
+      <c r="AS1" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="AP1" s="34" t="s">
+      <c r="AT1" s="34" t="s">
         <v>288</v>
-      </c>
-      <c r="AQ1" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="AR1" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="AS1" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="AT1" s="34" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:46" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>23</v>
@@ -3139,25 +3139,25 @@
         <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H2" s="6">
         <v>2</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K2" s="6">
         <v>180509</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N2" s="78" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O2" s="6">
         <v>1</v>
@@ -3244,7 +3244,7 @@
         <v>0.47</v>
       </c>
       <c r="AR2" s="41" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AS2" s="42">
         <v>0.25</v>
@@ -3258,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>23</v>
@@ -3273,28 +3273,28 @@
         <v>25</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K3" s="6">
         <v>180509</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M3" s="9">
         <v>372</v>
       </c>
       <c r="N3" s="80" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O3" s="6">
         <v>2</v>
@@ -3382,7 +3382,7 @@
         <v>0.46</v>
       </c>
       <c r="AR3" s="41" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AS3" s="42">
         <v>0.25</v>
@@ -3396,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>94</v>
@@ -3411,26 +3411,26 @@
         <v>96</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H4" s="6">
         <v>5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4">
         <v>180803</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M4" s="4">
         <v>868</v>
       </c>
       <c r="N4" s="81" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O4" s="4">
         <v>1</v>
@@ -3514,7 +3514,7 @@
         <v>0.46</v>
       </c>
       <c r="AR4" s="41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AS4" s="42">
         <v>0.17</v>
@@ -3528,7 +3528,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -3543,25 +3543,25 @@
         <v>25</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H5" s="6">
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K5" s="2">
         <v>180511</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>38</v>
       </c>
       <c r="N5" s="82" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O5" s="2">
         <v>2</v>
@@ -3648,7 +3648,7 @@
         <v>0.47</v>
       </c>
       <c r="AR5" s="41" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AS5" s="42">
         <v>0.25</v>
@@ -3662,7 +3662,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -3677,26 +3677,26 @@
         <v>25</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H6" s="6">
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
         <v>180511</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="N6" s="82" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O6" s="2">
         <v>3</v>
@@ -3784,7 +3784,7 @@
         <v>0.45</v>
       </c>
       <c r="AR6" s="41" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AS6" s="42">
         <v>0.17</v>
@@ -3798,7 +3798,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -3813,26 +3813,26 @@
         <v>25</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H7" s="6">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2">
         <v>180511</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N7" s="82" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O7" s="2">
         <v>4</v>
@@ -3920,7 +3920,7 @@
         <v>0.45</v>
       </c>
       <c r="AR7" s="41" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AS7" s="42">
         <v>0.25</v>
@@ -3934,7 +3934,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>23</v>
@@ -3949,26 +3949,26 @@
         <v>25</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H8" s="6">
         <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4">
         <v>180516</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="N8" s="81" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O8" s="4">
         <v>1</v>
@@ -4056,7 +4056,7 @@
         <v>0.42</v>
       </c>
       <c r="AR8" s="41" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AS8" s="42">
         <v>0.17</v>
@@ -4070,7 +4070,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>23</v>
@@ -4085,26 +4085,26 @@
         <v>25</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H9" s="6">
         <v>3</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4">
         <v>180516</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>59</v>
       </c>
       <c r="N9" s="81" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O9" s="4">
         <v>2</v>
@@ -4192,7 +4192,7 @@
         <v>0.46</v>
       </c>
       <c r="AR9" s="41" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AS9" s="42">
         <v>0.25</v>
@@ -4206,7 +4206,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -4221,28 +4221,28 @@
         <v>25</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H10" s="6">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K10" s="2">
         <v>180523</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N10" s="77" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O10" s="2">
         <v>1</v>
@@ -4328,7 +4328,7 @@
         <v>0.5</v>
       </c>
       <c r="AR10" s="41" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AS10" s="42">
         <v>0.25</v>
@@ -4342,7 +4342,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -4357,28 +4357,28 @@
         <v>25</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H11" s="6">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K11" s="2">
         <v>180523</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>69</v>
       </c>
       <c r="N11" s="77" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O11" s="2">
         <v>2</v>
@@ -4464,7 +4464,7 @@
         <v>0.38</v>
       </c>
       <c r="AR11" s="41" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AS11" s="42">
         <v>0.17</v>
@@ -4478,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>23</v>
@@ -4493,28 +4493,28 @@
         <v>25</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H12" s="6">
         <v>2</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K12" s="4">
         <v>180524</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>74</v>
       </c>
       <c r="N12" s="81" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O12" s="4">
         <v>1</v>
@@ -4598,7 +4598,7 @@
         <v>0.44</v>
       </c>
       <c r="AR12" s="41" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AS12" s="42">
         <v>0.25</v>
@@ -4612,7 +4612,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>23</v>
@@ -4627,26 +4627,26 @@
         <v>25</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H13" s="6">
         <v>3</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4">
         <v>180524</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>77</v>
       </c>
       <c r="N13" s="81" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O13" s="4">
         <v>2</v>
@@ -4732,7 +4732,7 @@
         <v>0.47</v>
       </c>
       <c r="AR13" s="41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AS13" s="42">
         <v>0.33</v>
@@ -4746,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>23</v>
@@ -4761,28 +4761,28 @@
         <v>25</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H14" s="6">
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K14" s="4">
         <v>180524</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>80</v>
       </c>
       <c r="N14" s="81" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O14" s="4">
         <v>3</v>
@@ -4868,7 +4868,7 @@
         <v>0.49</v>
       </c>
       <c r="AR14" s="41" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AS14" s="42">
         <v>0.25</v>
@@ -4882,7 +4882,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>23</v>
@@ -4897,26 +4897,26 @@
         <v>25</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H15" s="6">
         <v>5</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2">
         <v>180530</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>84</v>
       </c>
       <c r="N15" s="77" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O15" s="2">
         <v>1</v>
@@ -5002,7 +5002,7 @@
         <v>0.5</v>
       </c>
       <c r="AR15" s="41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AS15" s="42">
         <v>0.25</v>
@@ -5025,7 +5025,7 @@
         <v>87</v>
       </c>
       <c r="N16" s="83" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O16" s="13">
         <v>2</v>
@@ -5070,10 +5070,10 @@
         <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -5082,26 +5082,26 @@
         <v>25</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H17" s="6">
         <v>7</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4">
         <v>180613</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M17" s="4">
         <v>379</v>
       </c>
       <c r="N17" s="81" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O17" s="4">
         <v>1</v>
@@ -5187,7 +5187,7 @@
         <v>0.44</v>
       </c>
       <c r="AR17" s="41" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AS17" s="42">
         <v>0.17</v>
@@ -5219,7 +5219,7 @@
         <v>91</v>
       </c>
       <c r="N18" s="83" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O18" s="13">
         <v>2</v>
@@ -5280,7 +5280,7 @@
         <v>204288</v>
       </c>
       <c r="N19" s="83" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O19" s="13">
         <v>1</v>
@@ -5325,10 +5325,10 @@
         <v>92</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -5337,26 +5337,26 @@
         <v>25</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H20" s="6">
         <v>13</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2">
         <v>180620</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M20" s="66" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N20" s="77" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O20" s="2">
         <v>2</v>
@@ -5442,7 +5442,7 @@
         <v>0.48</v>
       </c>
       <c r="AR20" s="41" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AS20" s="42">
         <v>0.33</v>
@@ -5474,7 +5474,7 @@
         <v>186</v>
       </c>
       <c r="N21" s="83" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O21" s="13">
         <v>1</v>
@@ -5544,7 +5544,7 @@
         <v>918</v>
       </c>
       <c r="N22" s="83" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O22" s="13">
         <v>2</v>
@@ -5594,7 +5594,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>94</v>
@@ -5609,25 +5609,25 @@
         <v>96</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H23" s="6">
         <v>4</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K23" s="2">
         <v>180730</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M23" s="2">
         <v>401</v>
       </c>
       <c r="N23" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O23" s="2">
         <v>1</v>
@@ -5711,7 +5711,7 @@
         <v>0.45</v>
       </c>
       <c r="AR23" s="41" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AS23" s="42">
         <v>0.17</v>
@@ -5725,7 +5725,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>94</v>
@@ -5740,26 +5740,26 @@
         <v>96</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H24" s="6">
         <v>4</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2">
         <v>180730</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M24" s="2">
         <v>298</v>
       </c>
       <c r="N24" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O24" s="2">
         <v>2</v>
@@ -5845,7 +5845,7 @@
         <v>0.45</v>
       </c>
       <c r="AR24" s="41" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AS24" s="42">
         <v>0.25</v>
@@ -5875,7 +5875,7 @@
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
       <c r="N25" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O25" s="30">
         <v>3</v>
@@ -5925,7 +5925,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>94</v>
@@ -5940,26 +5940,26 @@
         <v>96</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H26" s="6">
         <v>6</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4">
         <v>180803</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M26" s="4">
         <v>457</v>
       </c>
       <c r="N26" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O26" s="4">
         <v>2</v>
@@ -6045,7 +6045,7 @@
         <v>0.44</v>
       </c>
       <c r="AR26" s="41" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AS26" s="42">
         <v>0.17</v>
@@ -6059,7 +6059,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>94</v>
@@ -6074,25 +6074,25 @@
         <v>96</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H27" s="6">
         <v>6</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K27" s="2">
         <v>180806</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M27" s="2">
         <v>427</v>
       </c>
       <c r="N27" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O27" s="2">
         <v>1</v>
@@ -6170,7 +6170,7 @@
         <v>0.47</v>
       </c>
       <c r="AR27" s="41" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AS27" s="42">
         <v>0.25</v>
@@ -6184,13 +6184,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -6199,25 +6199,25 @@
         <v>96</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H28" s="6">
         <v>6</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K28" s="2">
         <v>180806</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M28" s="2">
         <v>719</v>
       </c>
       <c r="N28" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O28" s="2">
         <v>2</v>
@@ -6262,7 +6262,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>94</v>
@@ -6277,25 +6277,25 @@
         <v>96</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H29" s="6">
         <v>3</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K29" s="2">
         <v>180806</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M29" s="2">
         <v>898</v>
       </c>
       <c r="N29" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O29" s="2">
         <v>3</v>
@@ -6373,7 +6373,7 @@
         <v>0.46</v>
       </c>
       <c r="AR29" s="41" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AS29" s="42">
         <v>0.17</v>
@@ -6387,7 +6387,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>94</v>
@@ -6402,26 +6402,26 @@
         <v>96</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H30" s="6">
         <v>3</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2">
         <v>180806</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M30" s="2">
         <v>1</v>
       </c>
       <c r="N30" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O30" s="2">
         <v>4</v>
@@ -6503,7 +6503,7 @@
         <v>0.47</v>
       </c>
       <c r="AR30" s="41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AS30" s="42">
         <v>0.25</v>
@@ -6520,10 +6520,10 @@
         <v>106</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E31" s="4">
         <v>2</v>
@@ -6532,25 +6532,25 @@
         <v>96</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H31" s="6">
         <v>3</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K31" s="4">
         <v>180808</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M31" s="4">
         <v>126</v>
       </c>
       <c r="N31" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O31" s="4">
         <v>1</v>
@@ -6626,7 +6626,7 @@
         <v>0.41</v>
       </c>
       <c r="AR31" s="41" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AS31" s="42">
         <v>0.17</v>
@@ -6643,10 +6643,10 @@
         <v>107</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
@@ -6655,26 +6655,26 @@
         <v>96</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H32" s="6">
         <v>6</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4">
         <v>180808</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M32" s="4">
         <v>840</v>
       </c>
       <c r="N32" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O32" s="4">
         <v>2</v>
@@ -6753,7 +6753,7 @@
         <v>0.45</v>
       </c>
       <c r="AR32" s="41" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AS32" s="42">
         <v>0.25</v>
@@ -6767,7 +6767,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>94</v>
@@ -6782,28 +6782,28 @@
         <v>96</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H33" s="6">
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K33" s="2">
         <v>180809</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M33" s="2">
         <v>342</v>
       </c>
       <c r="N33" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O33" s="2">
         <v>1</v>
@@ -6878,7 +6878,7 @@
         <v>0.44</v>
       </c>
       <c r="AR33" s="41" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AS33" s="42">
         <v>0.17</v>
@@ -6892,7 +6892,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>94</v>
@@ -6907,28 +6907,28 @@
         <v>96</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H34" s="6">
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K34" s="2">
         <v>180809</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M34" s="2">
         <v>149</v>
       </c>
       <c r="N34" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O34" s="2">
         <v>2</v>
@@ -7003,7 +7003,7 @@
         <v>0.46</v>
       </c>
       <c r="AR34" s="41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AS34" s="42">
         <v>0.25</v>
@@ -7017,7 +7017,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>94</v>
@@ -7032,25 +7032,25 @@
         <v>96</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H35" s="6">
         <v>4</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K35" s="2">
         <v>180809</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M35" s="2">
         <v>671</v>
       </c>
       <c r="N35" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O35" s="2">
         <v>3</v>
@@ -7125,7 +7125,7 @@
         <v>0.46</v>
       </c>
       <c r="AR35" s="41" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AS35" s="42">
         <v>0.17</v>
@@ -7139,7 +7139,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>94</v>
@@ -7154,26 +7154,26 @@
         <v>96</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H36" s="6">
         <v>3</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2">
         <v>180809</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M36" s="2">
         <v>1114</v>
       </c>
       <c r="N36" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O36" s="2">
         <v>4</v>
@@ -7253,7 +7253,7 @@
         <v>0.43</v>
       </c>
       <c r="AR36" s="41" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AS36" s="42">
         <v>0.17</v>
@@ -7267,41 +7267,41 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H37" s="6">
         <v>1</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K37" s="2">
         <v>180815</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M37" s="2">
         <v>241</v>
       </c>
       <c r="N37" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O37" s="2">
         <v>1</v>
@@ -7330,7 +7330,7 @@
         <v>5.5</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AB37" s="2" t="s">
         <v>66</v>
@@ -7381,7 +7381,7 @@
         <v>0.45</v>
       </c>
       <c r="AR37" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AS37" s="39">
         <v>0.25</v>
@@ -7395,7 +7395,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>94</v>
@@ -7404,7 +7404,7 @@
         <v>112</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="4">
@@ -7414,7 +7414,7 @@
         <v>241</v>
       </c>
       <c r="N38" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O38" s="4">
         <v>1</v>
@@ -7459,7 +7459,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>94</v>
@@ -7469,7 +7469,7 @@
         <v>112</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="4">
@@ -7479,7 +7479,7 @@
         <v>83</v>
       </c>
       <c r="N39" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O39" s="4">
         <v>2</v>
@@ -7545,7 +7545,7 @@
         <v>112</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="4">
@@ -7555,7 +7555,7 @@
         <v>459</v>
       </c>
       <c r="N40" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O40" s="4">
         <v>3</v>
@@ -7622,7 +7622,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O41" s="4">
         <v>4</v>
@@ -7686,13 +7686,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -7701,28 +7701,28 @@
         <v>96</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H42" s="6">
         <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K42" s="2">
         <v>180824</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M42" s="2">
         <v>991</v>
       </c>
       <c r="N42" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O42" s="2">
         <v>1</v>
@@ -7797,7 +7797,7 @@
         <v>0.45</v>
       </c>
       <c r="AR42" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AS42" s="39">
         <v>0.25</v>
@@ -7811,13 +7811,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
@@ -7826,28 +7826,28 @@
         <v>96</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H43" s="6">
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K43" s="2">
         <v>180824</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M43" s="2">
         <v>976</v>
       </c>
       <c r="N43" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O43" s="2">
         <v>2</v>
@@ -7922,7 +7922,7 @@
         <v>0.46</v>
       </c>
       <c r="AR43" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AS43" s="39">
         <v>0.25</v>
@@ -7936,13 +7936,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
@@ -7951,28 +7951,28 @@
         <v>96</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H44" s="6">
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K44" s="2">
         <v>180824</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M44" s="2">
         <v>904</v>
       </c>
       <c r="N44" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O44" s="2">
         <v>3</v>
@@ -8052,7 +8052,7 @@
         <v>0.45</v>
       </c>
       <c r="AR44" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AS44" s="39">
         <v>0.25</v>
@@ -8066,13 +8066,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -8081,28 +8081,28 @@
         <v>96</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H45" s="6">
         <v>1</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K45" s="4">
         <v>180905</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M45" s="4">
         <v>767</v>
       </c>
       <c r="N45" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O45" s="4">
         <v>1</v>
@@ -8178,7 +8178,7 @@
         <v>0.47</v>
       </c>
       <c r="AR45" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AS45" s="39">
         <v>0.33</v>
@@ -8192,13 +8192,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E46" s="4">
         <v>2</v>
@@ -8207,28 +8207,28 @@
         <v>96</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H46" s="6">
         <v>1</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K46" s="4">
         <v>180905</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M46" s="4">
         <v>583</v>
       </c>
       <c r="N46" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O46" s="4">
         <v>2</v>
@@ -8304,7 +8304,7 @@
         <v>0.54</v>
       </c>
       <c r="AR46" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AS46" s="39">
         <v>0.33</v>
@@ -8318,13 +8318,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E47" s="4">
         <v>2</v>
@@ -8333,28 +8333,28 @@
         <v>96</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H47" s="6">
         <v>1</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K47" s="4">
         <v>180905</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M47" s="4">
         <v>600</v>
       </c>
       <c r="N47" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O47" s="4">
         <v>3</v>
@@ -8433,7 +8433,7 @@
         <v>0.43</v>
       </c>
       <c r="AR47" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AS47" s="39">
         <v>0.08</v>
@@ -8450,10 +8450,10 @@
         <v>117</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E48" s="2">
         <v>2</v>
@@ -8462,34 +8462,34 @@
         <v>96</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H48" s="2">
         <v>8</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>118</v>
+        <v>457</v>
       </c>
       <c r="K48" s="2">
         <v>180914</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M48" s="2">
         <v>97</v>
       </c>
       <c r="N48" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O48" s="2">
         <v>1</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V48" s="22">
         <v>134.80000000000001</v>
@@ -8558,7 +8558,7 @@
         <v>0.49</v>
       </c>
       <c r="AR48" s="41" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AS48" s="42">
         <v>0.25</v>
@@ -8572,13 +8572,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E49" s="2">
         <v>2</v>
@@ -8587,34 +8587,34 @@
         <v>96</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H49" s="2">
         <v>8</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>120</v>
+        <v>457</v>
       </c>
       <c r="K49" s="2">
         <v>180914</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M49" s="2">
         <v>359</v>
       </c>
       <c r="N49" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O49" s="2">
         <v>2</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V49" s="22">
         <v>131.6</v>
@@ -8683,7 +8683,7 @@
         <v>0.5</v>
       </c>
       <c r="AR49" s="41" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AS49" s="42">
         <v>0.25</v>
@@ -8697,13 +8697,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E50" s="2">
         <v>2</v>
@@ -8712,34 +8712,34 @@
         <v>96</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H50" s="2">
         <v>8</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>122</v>
+        <v>458</v>
       </c>
       <c r="K50" s="2">
         <v>180914</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M50" s="2">
         <v>96</v>
       </c>
       <c r="N50" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O50" s="2">
         <v>3</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V50" s="22">
         <v>146.4</v>
@@ -8808,7 +8808,7 @@
         <v>0.47</v>
       </c>
       <c r="AR50" s="41" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AS50" s="42">
         <v>0.25</v>
@@ -8822,13 +8822,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E51" s="2">
         <v>2</v>
@@ -8837,35 +8837,35 @@
         <v>96</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H51" s="2">
         <v>8</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>124</v>
+        <v>458</v>
       </c>
       <c r="K51" s="2">
         <v>180914</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M51" s="2">
         <v>198</v>
       </c>
       <c r="N51" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O51" s="2">
         <v>4</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -8938,7 +8938,7 @@
         <v>0.47</v>
       </c>
       <c r="AR51" s="41" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AS51" s="42">
         <v>0.25</v>
@@ -8952,13 +8952,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E52" s="4">
         <v>2</v>
@@ -8967,34 +8967,34 @@
         <v>96</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H52" s="4">
         <v>15</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K52" s="4">
         <v>181026</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M52" s="4">
         <v>399</v>
       </c>
       <c r="N52" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O52" s="4">
         <v>1</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V52" s="23">
         <v>57.2</v>
@@ -9012,7 +9012,7 @@
         <v>5</v>
       </c>
       <c r="AA52" s="43" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AB52" s="4" t="s">
         <v>29</v>
@@ -9021,10 +9021,10 @@
         <v>30</v>
       </c>
       <c r="AD52" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE52" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF52" s="38">
         <v>0.18099999999999999</v>
@@ -9063,7 +9063,7 @@
         <v>0.47</v>
       </c>
       <c r="AR52" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AS52" s="39">
         <v>0.17</v>
@@ -9077,13 +9077,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E53" s="4">
         <v>2</v>
@@ -9092,34 +9092,34 @@
         <v>96</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H53" s="4">
         <v>15</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K53" s="4">
         <v>181026</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M53" s="4">
         <v>817</v>
       </c>
       <c r="N53" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O53" s="4">
         <v>2</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V53" s="23">
         <v>55.6</v>
@@ -9137,7 +9137,7 @@
         <v>5</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AB53" s="4" t="s">
         <v>35</v>
@@ -9146,10 +9146,10 @@
         <v>36</v>
       </c>
       <c r="AD53" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE53" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF53" s="38">
         <v>0.20200000000000001</v>
@@ -9188,7 +9188,7 @@
         <v>0.46</v>
       </c>
       <c r="AR53" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AS53" s="39">
         <v>0.33</v>
@@ -9202,13 +9202,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E54" s="4">
         <v>2</v>
@@ -9217,34 +9217,34 @@
         <v>96</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H54" s="4">
         <v>15</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K54" s="4">
         <v>181026</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M54" s="4">
         <v>464</v>
       </c>
       <c r="N54" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O54" s="4">
         <v>3</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V54" s="23">
         <v>91.6</v>
@@ -9262,7 +9262,7 @@
         <v>5</v>
       </c>
       <c r="AA54" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AB54" s="4" t="s">
         <v>40</v>
@@ -9271,10 +9271,10 @@
         <v>41</v>
       </c>
       <c r="AD54" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE54" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF54" s="38">
         <v>0.20200000000000001</v>
@@ -9313,7 +9313,7 @@
         <v>0.46</v>
       </c>
       <c r="AR54" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AS54" s="39">
         <v>0.25</v>
@@ -9327,13 +9327,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E55" s="4">
         <v>2</v>
@@ -9342,34 +9342,34 @@
         <v>96</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H55" s="4">
         <v>15</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K55" s="4">
         <v>181026</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M55" s="4">
         <v>1097</v>
       </c>
       <c r="N55" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O55" s="4">
         <v>4</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V55" s="23">
         <v>120.8</v>
@@ -9387,7 +9387,7 @@
         <v>5</v>
       </c>
       <c r="AA55" s="18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AB55" s="4" t="s">
         <v>45</v>
@@ -9396,10 +9396,10 @@
         <v>46</v>
       </c>
       <c r="AD55" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE55" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF55" s="38">
         <v>0.26100000000000001</v>
@@ -9438,7 +9438,7 @@
         <v>0.44</v>
       </c>
       <c r="AR55" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AS55" s="39">
         <v>0.25</v>
@@ -9452,13 +9452,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E56" s="2">
         <v>3</v>
@@ -9467,7 +9467,7 @@
         <v>96</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K56" s="2">
         <v>181109</v>
@@ -9476,13 +9476,13 @@
         <v>1064</v>
       </c>
       <c r="N56" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O56" s="2">
         <v>1</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V56" s="22">
         <v>47.2</v>
@@ -9500,7 +9500,7 @@
         <v>5</v>
       </c>
       <c r="AA56" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AB56" s="2" t="s">
         <v>50</v>
@@ -9509,10 +9509,10 @@
         <v>51</v>
       </c>
       <c r="AD56" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE56" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF56" s="38">
         <v>0.22600000000000001</v>
@@ -9551,7 +9551,7 @@
         <v>0.48</v>
       </c>
       <c r="AR56" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AS56" s="39">
         <v>0.25</v>
@@ -9565,13 +9565,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E57" s="2">
         <v>3</v>
@@ -9580,7 +9580,7 @@
         <v>96</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K57" s="2">
         <v>181109</v>
@@ -9589,13 +9589,13 @@
         <v>127</v>
       </c>
       <c r="N57" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O57" s="2">
         <v>2</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V57" s="22">
         <v>63.2</v>
@@ -9613,7 +9613,7 @@
         <v>5</v>
       </c>
       <c r="AA57" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AB57" s="2" t="s">
         <v>56</v>
@@ -9622,10 +9622,10 @@
         <v>57</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE57" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF57" s="38">
         <v>0.23400000000000001</v>
@@ -9664,7 +9664,7 @@
         <v>0.46</v>
       </c>
       <c r="AR57" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AS57" s="39">
         <v>0.25</v>
@@ -9678,13 +9678,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E58" s="2">
         <v>3</v>
@@ -9693,7 +9693,7 @@
         <v>96</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K58" s="2">
         <v>181109</v>
@@ -9702,13 +9702,13 @@
         <v>318</v>
       </c>
       <c r="N58" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O58" s="2">
         <v>3</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V58" s="22">
         <v>88.4</v>
@@ -9726,7 +9726,7 @@
         <v>5</v>
       </c>
       <c r="AA58" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AB58" s="2" t="s">
         <v>61</v>
@@ -9735,10 +9735,10 @@
         <v>62</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE58" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF58" s="38">
         <v>0.24199999999999999</v>
@@ -9777,7 +9777,7 @@
         <v>0.46</v>
       </c>
       <c r="AR58" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AS58" s="39">
         <v>0.25</v>
@@ -9791,13 +9791,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E59" s="2">
         <v>3</v>
@@ -9806,7 +9806,7 @@
         <v>96</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K59" s="2">
         <v>181109</v>
@@ -9815,13 +9815,13 @@
         <v>745</v>
       </c>
       <c r="N59" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O59" s="2">
         <v>4</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V59" s="22">
         <v>77.599999999999994</v>
@@ -9839,7 +9839,7 @@
         <v>5</v>
       </c>
       <c r="AA59" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AB59" s="2" t="s">
         <v>66</v>
@@ -9848,10 +9848,10 @@
         <v>67</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE59" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF59" s="38">
         <v>0.20599999999999999</v>
@@ -9890,7 +9890,7 @@
         <v>0.46</v>
       </c>
       <c r="AR59" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AS59" s="39">
         <v>0.25</v>
@@ -9904,13 +9904,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E60" s="2">
         <v>3</v>
@@ -9919,7 +9919,7 @@
         <v>96</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K60" s="2">
         <v>181109</v>
@@ -9928,13 +9928,13 @@
         <v>62</v>
       </c>
       <c r="N60" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O60" s="2">
         <v>5</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V60" s="22">
         <v>67.599999999999994</v>
@@ -9981,7 +9981,7 @@
         <v>0.45</v>
       </c>
       <c r="AR60" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AS60" s="39">
         <v>0.25</v>
@@ -9995,13 +9995,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E61" s="2">
         <v>3</v>
@@ -10010,7 +10010,7 @@
         <v>96</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K61" s="2">
         <v>181109</v>
@@ -10019,13 +10019,13 @@
         <v>1048</v>
       </c>
       <c r="N61" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O61" s="2">
         <v>6</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V61" s="22">
         <v>73.2</v>
@@ -10072,7 +10072,7 @@
         <v>0.4</v>
       </c>
       <c r="AR61" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AS61" s="39">
         <v>0.17</v>
@@ -10086,13 +10086,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E62" s="4">
         <v>4</v>
@@ -10101,7 +10101,7 @@
         <v>96</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K62" s="4">
         <v>181116</v>
@@ -10110,13 +10110,13 @@
         <v>251</v>
       </c>
       <c r="N62" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O62" s="4">
         <v>1</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V62" s="23">
         <v>17.36</v>
@@ -10163,7 +10163,7 @@
         <v>0.45</v>
       </c>
       <c r="AR62" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AS62" s="39">
         <v>0.25</v>
@@ -10177,13 +10177,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E63" s="4">
         <v>4</v>
@@ -10192,7 +10192,7 @@
         <v>96</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K63" s="4">
         <v>181116</v>
@@ -10201,13 +10201,13 @@
         <v>712</v>
       </c>
       <c r="N63" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O63" s="4">
         <v>2</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V63" s="23">
         <v>39.200000000000003</v>
@@ -10254,7 +10254,7 @@
         <v>0.44</v>
       </c>
       <c r="AR63" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AS63" s="39">
         <v>0.08</v>
@@ -10268,13 +10268,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E64" s="4">
         <v>4</v>
@@ -10283,7 +10283,7 @@
         <v>96</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K64" s="4">
         <v>181116</v>
@@ -10292,13 +10292,13 @@
         <v>1122</v>
       </c>
       <c r="N64" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O64" s="4">
         <v>3</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V64" s="23">
         <v>24.48</v>
@@ -10345,7 +10345,7 @@
         <v>0.45</v>
       </c>
       <c r="AR64" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AS64" s="39">
         <v>0.08</v>
@@ -10359,13 +10359,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E65" s="4">
         <v>4</v>
@@ -10374,7 +10374,7 @@
         <v>96</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K65" s="4">
         <v>181116</v>
@@ -10383,13 +10383,13 @@
         <v>738</v>
       </c>
       <c r="N65" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O65" s="4">
         <v>4</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V65" s="23">
         <v>10.48</v>
@@ -10436,7 +10436,7 @@
         <v>0.44</v>
       </c>
       <c r="AR65" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AS65" s="39">
         <v>0.08</v>
@@ -10450,13 +10450,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E66" s="4">
         <v>4</v>
@@ -10465,7 +10465,7 @@
         <v>96</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K66" s="4">
         <v>181116</v>
@@ -10474,13 +10474,13 @@
         <v>884</v>
       </c>
       <c r="N66" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O66" s="4">
         <v>5</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V66" s="23">
         <v>59.6</v>
@@ -10526,7 +10526,7 @@
         <v>0.44</v>
       </c>
       <c r="AR66" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AS66" s="39">
         <v>0.25</v>
@@ -10540,13 +10540,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E67" s="4">
         <v>4</v>
@@ -10555,7 +10555,7 @@
         <v>96</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K67" s="4">
         <v>181116</v>
@@ -10564,13 +10564,13 @@
         <v>1017</v>
       </c>
       <c r="N67" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O67" s="4">
         <v>6</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V67" s="23">
         <v>24.44</v>
@@ -10616,7 +10616,7 @@
         <v>0.43</v>
       </c>
       <c r="AR67" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AS67" s="39">
         <v>0.08</v>
@@ -10630,13 +10630,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -10645,34 +10645,34 @@
         <v>96</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H68" s="2">
         <v>15</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K68" s="2">
         <v>181130</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M68" s="2">
         <v>270</v>
       </c>
       <c r="N68" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O68" s="2">
         <v>1</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V68" s="22">
         <v>26.6</v>
@@ -10741,7 +10741,7 @@
         <v>0.46</v>
       </c>
       <c r="AR68" s="36" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AS68" s="37">
         <v>0.08</v>
@@ -10755,13 +10755,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -10770,34 +10770,34 @@
         <v>96</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H69" s="2">
         <v>15</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K69" s="2">
         <v>181130</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M69" s="2">
         <v>306</v>
       </c>
       <c r="N69" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O69" s="2">
         <v>2</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V69" s="22">
         <v>29.4</v>
@@ -10866,7 +10866,7 @@
         <v>0.44</v>
       </c>
       <c r="AR69" s="36" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AS69" s="37">
         <v>0.17</v>
@@ -10880,13 +10880,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -10895,34 +10895,34 @@
         <v>96</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H70" s="2">
         <v>7</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K70" s="2">
         <v>181130</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M70" s="2">
         <v>399</v>
       </c>
       <c r="N70" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O70" s="2">
         <v>3</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V70" s="22">
         <v>34.6</v>
@@ -10991,7 +10991,7 @@
         <v>0.45</v>
       </c>
       <c r="AR70" s="36" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AS70" s="37">
         <v>0.17</v>
@@ -11005,13 +11005,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
@@ -11020,34 +11020,34 @@
         <v>96</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H71" s="2">
         <v>15</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K71" s="2">
         <v>181130</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M71" s="2">
         <v>904</v>
       </c>
       <c r="N71" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O71" s="2">
         <v>4</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V71" s="22">
         <v>43</v>
@@ -11116,7 +11116,7 @@
         <v>0.41</v>
       </c>
       <c r="AR71" s="36" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AS71" s="37">
         <v>0.08</v>
@@ -11130,13 +11130,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
@@ -11145,34 +11145,34 @@
         <v>96</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H72" s="2">
         <v>15</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K72" s="2">
         <v>181130</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M72" s="2">
         <v>5</v>
       </c>
       <c r="N72" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O72" s="2">
         <v>5</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V72" s="22">
         <v>12.6</v>
@@ -11241,7 +11241,7 @@
         <v>0.46</v>
       </c>
       <c r="AR72" s="36" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AS72" s="37">
         <v>0.17</v>
@@ -11255,13 +11255,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
@@ -11270,34 +11270,34 @@
         <v>96</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H73" s="2">
         <v>15</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K73" s="2">
         <v>181130</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M73" s="2">
         <v>12</v>
       </c>
       <c r="N73" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O73" s="2">
         <v>6</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V73" s="22">
         <v>13.64</v>
@@ -11366,7 +11366,7 @@
         <v>0.47</v>
       </c>
       <c r="AR73" s="36" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AS73" s="37">
         <v>0.17</v>
@@ -11380,13 +11380,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -11395,34 +11395,34 @@
         <v>96</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H74" s="2">
         <v>15</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K74" s="2">
         <v>181130</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M74" s="2">
         <v>395</v>
       </c>
       <c r="N74" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O74" s="2">
         <v>7</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V74" s="22">
         <v>35</v>
@@ -11491,7 +11491,7 @@
         <v>0.45</v>
       </c>
       <c r="AR74" s="36" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AS74" s="37">
         <v>0.17</v>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="D75" s="44"/>
       <c r="G75" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K75" s="2">
         <v>181130</v>
@@ -11515,13 +11515,13 @@
         <v>530</v>
       </c>
       <c r="N75" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O75" s="2">
         <v>8</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V75" s="22">
         <v>0.56799999999999995</v>
@@ -11546,7 +11546,7 @@
         <v>74</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K76" s="4">
         <v>181207</v>
@@ -11555,16 +11555,16 @@
         <v>451</v>
       </c>
       <c r="N76" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O76" s="4">
         <v>1</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V76" s="23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AE76" s="17"/>
       <c r="AJ76" s="47"/>
@@ -11574,7 +11574,7 @@
         <v>75</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K77" s="4">
         <v>181207</v>
@@ -11583,16 +11583,16 @@
         <v>669</v>
       </c>
       <c r="N77" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O77" s="4">
         <v>2</v>
       </c>
       <c r="Q77" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V77" s="23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AE77" s="17"/>
       <c r="AJ77" s="47"/>
@@ -11602,7 +11602,7 @@
         <v>76</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K78" s="4">
         <v>181207</v>
@@ -11611,13 +11611,13 @@
         <v>574</v>
       </c>
       <c r="N78" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O78" s="4">
         <v>3</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V78" s="23">
         <v>2.2559999999999998</v>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="D79" s="43"/>
       <c r="G79" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K79" s="4">
         <v>181207</v>
@@ -11640,13 +11640,13 @@
         <v>382</v>
       </c>
       <c r="N79" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O79" s="4">
         <v>4</v>
       </c>
       <c r="Q79" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V79" s="23">
         <v>2.7559999999999998</v>
@@ -11672,7 +11672,7 @@
       </c>
       <c r="D80" s="43"/>
       <c r="G80" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K80" s="4">
         <v>181207</v>
@@ -11681,13 +11681,13 @@
         <v>29</v>
       </c>
       <c r="N80" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O80" s="4">
         <v>5</v>
       </c>
       <c r="Q80" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V80" s="23">
         <v>25.04</v>
@@ -11713,7 +11713,7 @@
       </c>
       <c r="D81" s="43"/>
       <c r="G81" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K81" s="4">
         <v>181207</v>
@@ -11722,13 +11722,13 @@
         <v>662</v>
       </c>
       <c r="N81" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O81" s="4">
         <v>6</v>
       </c>
       <c r="Q81" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V81" s="23">
         <v>27.12</v>
@@ -11754,7 +11754,7 @@
       </c>
       <c r="D82" s="43"/>
       <c r="G82" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K82" s="4">
         <v>181207</v>
@@ -11763,13 +11763,13 @@
         <v>623</v>
       </c>
       <c r="N82" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O82" s="4">
         <v>7</v>
       </c>
       <c r="Q82" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V82" s="23">
         <v>23.76</v>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="D83" s="43"/>
       <c r="G83" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K83" s="4">
         <v>181207</v>
@@ -11804,13 +11804,13 @@
         <v>568</v>
       </c>
       <c r="N83" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O83" s="4">
         <v>8</v>
       </c>
       <c r="Q83" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V83" s="23">
         <v>42</v>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="D84" s="44"/>
       <c r="G84" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K84" s="2">
         <v>190116</v>
@@ -11845,13 +11845,13 @@
         <v>124</v>
       </c>
       <c r="N84" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O84" s="2">
         <v>1</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V84" s="22">
         <v>2.2000000000000002</v>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="D85" s="44"/>
       <c r="G85" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K85" s="2">
         <v>190116</v>
@@ -11886,13 +11886,13 @@
         <v>742</v>
       </c>
       <c r="N85" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O85" s="2">
         <v>2</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V85" s="22">
         <v>2.5</v>
@@ -11918,7 +11918,7 @@
       </c>
       <c r="D86" s="44"/>
       <c r="G86" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K86" s="2">
         <v>190116</v>
@@ -11927,13 +11927,13 @@
         <v>720</v>
       </c>
       <c r="N86" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O86" s="2">
         <v>3</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V86" s="22">
         <v>3.8</v>
@@ -11959,7 +11959,7 @@
       </c>
       <c r="D87" s="44"/>
       <c r="G87" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K87" s="2">
         <v>190116</v>
@@ -11968,13 +11968,13 @@
         <v>620</v>
       </c>
       <c r="N87" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O87" s="2">
         <v>4</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V87" s="22">
         <v>4.3600000000000003</v>
@@ -12000,7 +12000,7 @@
       </c>
       <c r="D88" s="44"/>
       <c r="G88" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K88" s="2">
         <v>190116</v>
@@ -12009,13 +12009,13 @@
         <v>975</v>
       </c>
       <c r="N88" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O88" s="2">
         <v>5</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V88" s="22">
         <v>1.3</v>
@@ -12041,7 +12041,7 @@
       </c>
       <c r="D89" s="44"/>
       <c r="G89" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K89" s="2">
         <v>190116</v>
@@ -12050,13 +12050,13 @@
         <v>988</v>
       </c>
       <c r="N89" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O89" s="2">
         <v>6</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V89" s="22">
         <v>37.96</v>
@@ -12082,7 +12082,7 @@
       </c>
       <c r="D90" s="43"/>
       <c r="G90" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K90" s="4">
         <v>190228</v>
@@ -12091,13 +12091,13 @@
         <v>380</v>
       </c>
       <c r="N90" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O90" s="4">
         <v>1</v>
       </c>
       <c r="Q90" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V90" s="23">
         <v>0.628</v>
@@ -12123,7 +12123,7 @@
       </c>
       <c r="D91" s="43"/>
       <c r="G91" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K91" s="4">
         <v>190228</v>
@@ -12132,13 +12132,13 @@
         <v>319</v>
       </c>
       <c r="N91" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O91" s="4">
         <v>2</v>
       </c>
       <c r="Q91" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V91" s="23">
         <v>1.52</v>
@@ -12164,7 +12164,7 @@
       </c>
       <c r="D92" s="43"/>
       <c r="G92" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K92" s="4">
         <v>190228</v>
@@ -12173,13 +12173,13 @@
         <v>49</v>
       </c>
       <c r="N92" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O92" s="4">
         <v>3</v>
       </c>
       <c r="Q92" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V92" s="23">
         <v>2.9</v>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="D93" s="43"/>
       <c r="G93" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K93" s="4">
         <v>190228</v>
@@ -12214,13 +12214,13 @@
         <v>188</v>
       </c>
       <c r="N93" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O93" s="4">
         <v>4</v>
       </c>
       <c r="Q93" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V93" s="23">
         <v>6.08</v>
@@ -12245,13 +12245,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E94" s="2">
         <v>3</v>
@@ -12260,31 +12260,31 @@
         <v>96</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H94" s="6">
         <v>9</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K94" s="2">
         <v>190320</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M94" s="2">
         <v>843</v>
       </c>
       <c r="N94" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O94" s="2">
         <v>1</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V94" s="22">
         <v>58.4</v>
@@ -12299,7 +12299,7 @@
         <v>5</v>
       </c>
       <c r="AA94" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AB94" s="2" t="s">
         <v>29</v>
@@ -12308,10 +12308,10 @@
         <v>30</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE94" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF94" s="51">
         <v>0.13500000000000001</v>
@@ -12350,7 +12350,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AR94" s="52" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AS94" s="53">
         <v>0.25</v>
@@ -12364,13 +12364,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E95" s="2">
         <v>3</v>
@@ -12379,31 +12379,31 @@
         <v>96</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H95" s="6">
         <v>9</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K95" s="2">
         <v>190320</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M95" s="2">
         <v>203</v>
       </c>
       <c r="N95" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O95" s="2">
         <v>2</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V95" s="22">
         <v>26.4</v>
@@ -12418,7 +12418,7 @@
         <v>5</v>
       </c>
       <c r="AA95" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AB95" s="2" t="s">
         <v>35</v>
@@ -12427,10 +12427,10 @@
         <v>36</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE95" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF95" s="51">
         <v>0.107</v>
@@ -12469,7 +12469,7 @@
         <v>0.5</v>
       </c>
       <c r="AR95" s="52" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AS95" s="53">
         <v>0.25</v>
@@ -12483,13 +12483,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E96" s="2">
         <v>3</v>
@@ -12498,31 +12498,31 @@
         <v>96</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H96" s="6">
         <v>11</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K96" s="2">
         <v>190320</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M96" s="2">
         <v>718</v>
       </c>
       <c r="N96" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O96" s="2">
         <v>3</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V96" s="22">
         <v>15.98</v>
@@ -12537,7 +12537,7 @@
         <v>5</v>
       </c>
       <c r="AA96" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AB96" s="2" t="s">
         <v>40</v>
@@ -12546,10 +12546,10 @@
         <v>41</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE96" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF96" s="51">
         <v>0.11799999999999999</v>
@@ -12588,7 +12588,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AR96" s="52" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AS96" s="53">
         <v>0.33</v>
@@ -12602,13 +12602,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="E97" s="2">
         <v>3</v>
@@ -12617,31 +12617,31 @@
         <v>96</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H97" s="6">
         <v>11</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K97" s="2">
         <v>190320</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M97" s="2">
         <v>154</v>
       </c>
       <c r="N97" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O97" s="2">
         <v>4</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V97" s="22">
         <v>12.08</v>
@@ -12656,7 +12656,7 @@
         <v>5</v>
       </c>
       <c r="AA97" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AB97" s="2" t="s">
         <v>45</v>
@@ -12665,10 +12665,10 @@
         <v>46</v>
       </c>
       <c r="AD97" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE97" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF97" s="51">
         <v>0.107</v>
@@ -12707,7 +12707,7 @@
         <v>0.5</v>
       </c>
       <c r="AR97" s="52" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AS97" s="53">
         <v>0.25</v>
@@ -12721,13 +12721,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E98" s="4">
         <v>2</v>
@@ -12736,28 +12736,28 @@
         <v>96</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K98" s="4">
         <v>190322</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M98" s="4">
         <v>39</v>
       </c>
       <c r="N98" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O98" s="4">
         <v>1</v>
       </c>
       <c r="Q98" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V98" s="23">
         <v>6.68</v>
@@ -12830,13 +12830,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E99" s="4">
         <v>2</v>
@@ -12845,28 +12845,28 @@
         <v>96</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K99" s="4">
         <v>190322</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M99" s="4">
         <v>26</v>
       </c>
       <c r="N99" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O99" s="4">
         <v>2</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V99" s="23">
         <v>112.8</v>
@@ -12939,13 +12939,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E100" s="4">
         <v>2</v>
@@ -12954,28 +12954,28 @@
         <v>96</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K100" s="4">
         <v>190322</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M100" s="4">
         <v>47</v>
       </c>
       <c r="N100" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O100" s="4">
         <v>3</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V100" s="23">
         <v>95.6</v>
@@ -13048,13 +13048,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E101" s="4">
         <v>2</v>
@@ -13063,28 +13063,28 @@
         <v>96</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K101" s="4">
         <v>190322</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M101" s="4">
         <v>88</v>
       </c>
       <c r="N101" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O101" s="4">
         <v>4</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V101" s="23">
         <v>62.4</v>
@@ -13157,13 +13157,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E102" s="2">
         <v>3</v>
@@ -13172,31 +13172,31 @@
         <v>96</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H102" s="6">
         <v>13</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K102" s="2">
         <v>190327</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M102" s="2">
         <v>555</v>
       </c>
       <c r="N102" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O102" s="2">
         <v>1</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V102" s="22">
         <v>60.8</v>
@@ -13211,7 +13211,7 @@
         <v>5</v>
       </c>
       <c r="AA102" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AB102" s="2" t="s">
         <v>50</v>
@@ -13220,10 +13220,10 @@
         <v>51</v>
       </c>
       <c r="AD102" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE102" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF102" s="51">
         <v>0.108</v>
@@ -13262,7 +13262,7 @@
         <v>0.46</v>
       </c>
       <c r="AR102" s="52" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AS102" s="53">
         <v>0.25</v>
@@ -13276,13 +13276,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E103" s="2">
         <v>3</v>
@@ -13291,31 +13291,31 @@
         <v>96</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H103" s="6">
         <v>13</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K103" s="2">
         <v>190327</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M103" s="2">
         <v>459</v>
       </c>
       <c r="N103" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O103" s="2">
         <v>2</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V103" s="22">
         <v>146</v>
@@ -13330,7 +13330,7 @@
         <v>5</v>
       </c>
       <c r="AA103" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AB103" s="2" t="s">
         <v>56</v>
@@ -13339,10 +13339,10 @@
         <v>57</v>
       </c>
       <c r="AD103" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE103" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF103" s="51">
         <v>0.34300000000000003</v>
@@ -13381,7 +13381,7 @@
         <v>0.46</v>
       </c>
       <c r="AR103" s="52" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AS103" s="53">
         <v>0.25</v>
@@ -13395,13 +13395,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E104" s="2">
         <v>3</v>
@@ -13410,31 +13410,31 @@
         <v>96</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H104" s="6">
         <v>9</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K104" s="2">
         <v>190327</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M104" s="2">
         <v>97</v>
       </c>
       <c r="N104" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O104" s="2">
         <v>3</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V104" s="22">
         <v>69.2</v>
@@ -13449,7 +13449,7 @@
         <v>5</v>
       </c>
       <c r="AA104" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AB104" s="2" t="s">
         <v>61</v>
@@ -13458,10 +13458,10 @@
         <v>62</v>
       </c>
       <c r="AD104" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE104" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF104" s="51">
         <v>0.125</v>
@@ -13500,7 +13500,7 @@
         <v>0.44</v>
       </c>
       <c r="AR104" s="52" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AS104" s="53">
         <v>0.17</v>
@@ -13514,13 +13514,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E105" s="2">
         <v>3</v>
@@ -13529,31 +13529,31 @@
         <v>96</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H105" s="6">
         <v>9</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K105" s="2">
         <v>190327</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M105" s="2">
         <v>572</v>
       </c>
       <c r="N105" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O105" s="2">
         <v>4</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V105" s="22">
         <v>112.4</v>
@@ -13568,7 +13568,7 @@
         <v>5</v>
       </c>
       <c r="AA105" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AB105" s="2" t="s">
         <v>66</v>
@@ -13577,10 +13577,10 @@
         <v>67</v>
       </c>
       <c r="AD105" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE105" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF105" s="51">
         <v>0.193</v>
@@ -13619,7 +13619,7 @@
         <v>0.46</v>
       </c>
       <c r="AR105" s="52" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AS105" s="53">
         <v>0.17</v>
@@ -13637,16 +13637,16 @@
         <v>96</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H106" s="4">
         <v>8</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K106" s="4">
         <v>190329</v>
@@ -13655,13 +13655,13 @@
         <v>321</v>
       </c>
       <c r="N106" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O106" s="4">
         <v>1</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V106" s="23">
         <v>4.4800000000000004</v>
@@ -13688,13 +13688,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E107" s="4">
         <v>4</v>
@@ -13703,34 +13703,34 @@
         <v>96</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H107" s="4">
         <v>8</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K107" s="4">
         <v>190329</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M107" s="4">
         <v>609</v>
       </c>
       <c r="N107" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O107" s="4">
         <v>2</v>
       </c>
       <c r="Q107" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V107" s="23">
         <v>71.599999999999994</v>
@@ -13799,7 +13799,7 @@
         <v>0.46</v>
       </c>
       <c r="AR107" s="52" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AS107" s="53">
         <v>0.25</v>
@@ -13813,13 +13813,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E108" s="4">
         <v>4</v>
@@ -13828,34 +13828,34 @@
         <v>96</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H108" s="4">
         <v>8</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K108" s="4">
         <v>190329</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M108" s="4">
         <v>433</v>
       </c>
       <c r="N108" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O108" s="4">
         <v>3</v>
       </c>
       <c r="Q108" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V108" s="23">
         <v>83.6</v>
@@ -13924,7 +13924,7 @@
         <v>0.46</v>
       </c>
       <c r="AR108" s="52" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AS108" s="53">
         <v>0.25</v>
@@ -13938,13 +13938,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E109" s="4">
         <v>4</v>
@@ -13953,34 +13953,34 @@
         <v>96</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H109" s="4">
         <v>8</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K109" s="4">
         <v>190329</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M109" s="4">
         <v>863</v>
       </c>
       <c r="N109" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O109" s="4">
         <v>4</v>
       </c>
       <c r="Q109" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V109" s="23">
         <v>58.8</v>
@@ -14049,7 +14049,7 @@
         <v>0.44</v>
       </c>
       <c r="AR109" s="52" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AS109" s="53">
         <v>0.17</v>
@@ -14063,13 +14063,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E110" s="2">
         <v>2</v>
@@ -14078,29 +14078,29 @@
         <v>96</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="2">
         <v>190401</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M110" s="2">
         <v>33</v>
       </c>
       <c r="N110" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O110" s="2">
         <v>1</v>
       </c>
       <c r="Q110" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V110" s="22">
         <v>36.479999999999997</v>
@@ -14173,13 +14173,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E111" s="2">
         <v>2</v>
@@ -14188,29 +14188,29 @@
         <v>96</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="2">
         <v>190401</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M111" s="2">
         <v>95</v>
       </c>
       <c r="N111" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O111" s="2">
         <v>2</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V111" s="22">
         <v>44</v>
@@ -14283,13 +14283,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E112" s="2">
         <v>2</v>
@@ -14298,29 +14298,29 @@
         <v>96</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="2">
         <v>190401</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M112" s="2">
         <v>205</v>
       </c>
       <c r="N112" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O112" s="2">
         <v>3</v>
       </c>
       <c r="Q112" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V112" s="22">
         <v>70.400000000000006</v>
@@ -14393,13 +14393,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E113" s="2">
         <v>2</v>
@@ -14408,29 +14408,29 @@
         <v>96</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="2">
         <v>190401</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M113" s="2">
         <v>132</v>
       </c>
       <c r="N113" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O113" s="2">
         <v>4</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V113" s="22">
         <v>63.6</v>
@@ -14448,7 +14448,7 @@
         <v>5</v>
       </c>
       <c r="AA113" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AB113" s="2" t="s">
         <v>66</v>
@@ -14503,13 +14503,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E114" s="4">
         <v>4</v>
@@ -14518,34 +14518,34 @@
         <v>96</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H114" s="4">
         <v>8</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K114" s="4">
         <v>190405</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M114" s="4">
         <v>862</v>
       </c>
       <c r="N114" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O114" s="4">
         <v>1</v>
       </c>
       <c r="Q114" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V114" s="23">
         <v>33.200000000000003</v>
@@ -14614,7 +14614,7 @@
         <v>0.51</v>
       </c>
       <c r="AR114" s="52" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AS114" s="53">
         <v>0.25</v>
@@ -14628,13 +14628,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E115" s="4">
         <v>4</v>
@@ -14643,34 +14643,34 @@
         <v>96</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H115" s="4">
         <v>8</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K115" s="4">
         <v>190405</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M115" s="4">
         <v>510</v>
       </c>
       <c r="N115" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O115" s="4">
         <v>2</v>
       </c>
       <c r="Q115" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V115" s="23">
         <v>20.36</v>
@@ -14739,7 +14739,7 @@
         <v>0.5</v>
       </c>
       <c r="AR115" s="52" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AS115" s="53">
         <v>0.17</v>
@@ -14753,13 +14753,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E116" s="4">
         <v>4</v>
@@ -14768,13 +14768,13 @@
         <v>96</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H116" s="4">
         <v>9</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J116" s="4" t="s">
         <v>456</v>
@@ -14783,19 +14783,19 @@
         <v>190405</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M116" s="4">
         <v>682</v>
       </c>
       <c r="N116" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O116" s="4">
         <v>3</v>
       </c>
       <c r="Q116" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V116" s="23">
         <v>125.6</v>
@@ -14864,7 +14864,7 @@
         <v>0.47</v>
       </c>
       <c r="AR116" s="52" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AS116" s="53">
         <v>0.17</v>
@@ -14878,13 +14878,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E117" s="4">
         <v>4</v>
@@ -14893,13 +14893,13 @@
         <v>96</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H117" s="4">
         <v>13</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J117" s="4" t="s">
         <v>456</v>
@@ -14908,19 +14908,19 @@
         <v>190405</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M117" s="4">
         <v>1160</v>
       </c>
       <c r="N117" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O117" s="4">
         <v>4</v>
       </c>
       <c r="Q117" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V117" s="23">
         <v>144</v>
@@ -14989,7 +14989,7 @@
         <v>0.47</v>
       </c>
       <c r="AR117" s="52" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AS117" s="53">
         <v>0.17</v>
@@ -15003,13 +15003,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E118" s="4">
         <v>4</v>
@@ -15018,34 +15018,34 @@
         <v>96</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H118" s="4">
         <v>8</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K118" s="4">
         <v>190405</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M118" s="4">
         <v>126</v>
       </c>
       <c r="N118" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O118" s="4">
         <v>5</v>
       </c>
       <c r="Q118" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V118" s="23">
         <v>153.6</v>
@@ -15114,7 +15114,7 @@
         <v>0.47</v>
       </c>
       <c r="AR118" s="52" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AS118" s="53">
         <v>0.17</v>
@@ -15129,28 +15129,28 @@
       </c>
       <c r="D119" s="44"/>
       <c r="G119" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H119" s="2">
         <v>13</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K119" s="2">
         <v>200116</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M119" s="2">
         <v>203</v>
       </c>
       <c r="N119" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O119" s="2">
         <v>1</v>
@@ -15181,13 +15181,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D120" s="62" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E120" s="2">
         <v>1</v>
@@ -15196,28 +15196,28 @@
         <v>96</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H120" s="2">
         <v>13</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K120" s="2">
         <v>200116</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M120" s="2">
         <v>204</v>
       </c>
       <c r="N120" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O120" s="2">
         <v>2</v>
@@ -15287,7 +15287,7 @@
         <v>0.48</v>
       </c>
       <c r="AR120" s="64" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AS120" s="65">
         <v>0.33</v>
@@ -15302,28 +15302,28 @@
       </c>
       <c r="D121" s="44"/>
       <c r="G121" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H121" s="2">
         <v>13</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K121" s="2">
         <v>200116</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M121" s="2">
         <v>558</v>
       </c>
       <c r="N121" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O121" s="2">
         <v>3</v>
@@ -15355,28 +15355,28 @@
       </c>
       <c r="D122" s="44"/>
       <c r="G122" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H122" s="2">
         <v>13</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K122" s="2">
         <v>200116</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M122" s="2">
         <v>276</v>
       </c>
       <c r="N122" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O122" s="2">
         <v>4</v>
@@ -15407,13 +15407,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D123" s="62" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E123" s="2">
         <v>1</v>
@@ -15422,28 +15422,28 @@
         <v>96</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H123" s="2">
         <v>13</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K123" s="2">
         <v>200116</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M123" s="2">
         <v>462</v>
       </c>
       <c r="N123" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O123" s="2">
         <v>5</v>
@@ -15515,7 +15515,7 @@
         <v>0.45</v>
       </c>
       <c r="AR123" s="64" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AS123" s="65">
         <v>0.25</v>
@@ -15530,28 +15530,28 @@
       </c>
       <c r="D124" s="44"/>
       <c r="G124" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H124" s="2">
         <v>13</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K124" s="2">
         <v>200116</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M124" s="2">
         <v>429</v>
       </c>
       <c r="N124" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O124" s="2">
         <v>6</v>
@@ -15583,25 +15583,25 @@
       </c>
       <c r="D125" s="43"/>
       <c r="G125" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H125" s="6">
         <v>2</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K125" s="4">
         <v>200205</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M125" s="4">
         <v>27</v>
       </c>
       <c r="N125" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O125" s="4">
         <v>1</v>
@@ -15633,25 +15633,25 @@
       </c>
       <c r="D126" s="43"/>
       <c r="G126" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H126" s="6">
         <v>2</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K126" s="4">
         <v>200205</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M126" s="4">
         <v>119</v>
       </c>
       <c r="N126" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O126" s="4">
         <v>2</v>
@@ -15682,13 +15682,13 @@
         <v>124</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D127" s="62" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E127" s="4">
         <v>1</v>
@@ -15697,25 +15697,25 @@
         <v>96</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H127" s="6">
         <v>14</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K127" s="4">
         <v>200205</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M127" s="4">
         <v>527</v>
       </c>
       <c r="N127" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O127" s="4">
         <v>3</v>
@@ -15787,7 +15787,7 @@
         <v>0.46</v>
       </c>
       <c r="AR127" s="64" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AS127" s="65">
         <v>0.17</v>
@@ -15801,13 +15801,13 @@
         <v>125</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D128" s="62" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E128" s="4">
         <v>1</v>
@@ -15816,25 +15816,25 @@
         <v>96</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H128" s="6">
         <v>14</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K128" s="4">
         <v>200205</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M128" s="4">
         <v>570</v>
       </c>
       <c r="N128" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O128" s="4">
         <v>4</v>
@@ -15906,7 +15906,7 @@
         <v>0.45</v>
       </c>
       <c r="AR128" s="64" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AS128" s="65">
         <v>0.25</v>
@@ -15920,13 +15920,13 @@
         <v>126</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D129" s="62" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E129" s="4">
         <v>1</v>
@@ -15935,25 +15935,25 @@
         <v>96</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H129" s="6">
         <v>14</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K129" s="4">
         <v>200205</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M129" s="4">
         <v>621</v>
       </c>
       <c r="N129" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O129" s="4">
         <v>5</v>
@@ -16025,7 +16025,7 @@
         <v>0.46</v>
       </c>
       <c r="AR129" s="64" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AS129" s="65">
         <v>0.33</v>
@@ -16039,13 +16039,13 @@
         <v>127</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D130" s="62" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E130" s="4">
         <v>1</v>
@@ -16054,25 +16054,25 @@
         <v>96</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H130" s="6">
         <v>14</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K130" s="4">
         <v>200205</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M130" s="4">
         <v>641</v>
       </c>
       <c r="N130" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O130" s="4">
         <v>6</v>
@@ -16144,7 +16144,7 @@
         <v>0.4</v>
       </c>
       <c r="AR130" s="64" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AS130" s="65">
         <v>0.25</v>
@@ -16158,13 +16158,13 @@
         <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D131" s="62" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E131" s="2">
         <v>1</v>
@@ -16173,25 +16173,25 @@
         <v>96</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H131" s="6">
         <v>2</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K131" s="2">
         <v>200206</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M131" s="2">
         <v>314</v>
       </c>
       <c r="N131" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O131" s="2">
         <v>1</v>
@@ -16263,7 +16263,7 @@
         <v>0.44</v>
       </c>
       <c r="AR131" s="64" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AS131" s="65">
         <v>0.08</v>
@@ -16277,13 +16277,13 @@
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D132" s="62" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E132" s="2">
         <v>1</v>
@@ -16292,25 +16292,25 @@
         <v>96</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H132" s="6">
         <v>2</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K132" s="2">
         <v>200206</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M132" s="2">
         <v>332</v>
       </c>
       <c r="N132" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O132" s="2">
         <v>2</v>
@@ -16382,7 +16382,7 @@
         <v>0.44</v>
       </c>
       <c r="AR132" s="64" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AS132" s="65">
         <v>0.17</v>
@@ -16396,13 +16396,13 @@
         <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D133" s="62" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E133" s="2">
         <v>1</v>
@@ -16411,25 +16411,25 @@
         <v>96</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H133" s="6">
         <v>2</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K133" s="2">
         <v>200206</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M133" s="2">
         <v>231</v>
       </c>
       <c r="N133" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O133" s="2">
         <v>3</v>
@@ -16501,7 +16501,7 @@
         <v>0.45</v>
       </c>
       <c r="AR133" s="64" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AS133" s="65">
         <v>0.08</v>
@@ -16515,13 +16515,13 @@
         <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D134" s="62" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E134" s="2">
         <v>1</v>
@@ -16530,25 +16530,25 @@
         <v>96</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H134" s="6">
         <v>2</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K134" s="2">
         <v>200206</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M134" s="2">
         <v>52</v>
       </c>
       <c r="N134" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O134" s="2">
         <v>4</v>
@@ -16618,7 +16618,7 @@
         <v>0.41</v>
       </c>
       <c r="AR134" s="64" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AS134" s="65">
         <v>0.17</v>
@@ -16632,13 +16632,13 @@
         <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D135" s="62" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E135" s="2">
         <v>1</v>
@@ -16647,25 +16647,25 @@
         <v>96</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H135" s="6">
         <v>2</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K135" s="2">
         <v>200206</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M135" s="2">
         <v>868</v>
       </c>
       <c r="N135" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O135" s="2">
         <v>5</v>
@@ -16735,7 +16735,7 @@
         <v>0.43</v>
       </c>
       <c r="AR135" s="64" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AS135" s="65">
         <v>0.17</v>
@@ -16749,13 +16749,13 @@
         <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D136" s="62" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E136" s="2">
         <v>1</v>
@@ -16764,25 +16764,25 @@
         <v>96</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H136" s="6">
         <v>2</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K136" s="2">
         <v>200206</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M136" s="2">
         <v>608</v>
       </c>
       <c r="N136" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O136" s="2">
         <v>6</v>
@@ -16852,7 +16852,7 @@
         <v>0.42</v>
       </c>
       <c r="AR136" s="64" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AS136" s="65">
         <v>0.17</v>
@@ -16866,13 +16866,13 @@
         <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D137" s="62" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E137" s="4">
         <v>1</v>
@@ -16881,25 +16881,25 @@
         <v>96</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H137" s="6">
         <v>14</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K137" s="4">
         <v>200211</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M137" s="4">
         <v>1013</v>
       </c>
       <c r="N137" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O137" s="4">
         <v>1</v>
@@ -16969,7 +16969,7 @@
         <v>0.45</v>
       </c>
       <c r="AR137" s="64" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AS137" s="65">
         <v>0.17</v>
@@ -16983,13 +16983,13 @@
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D138" s="62" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E138" s="4">
         <v>1</v>
@@ -16998,25 +16998,25 @@
         <v>96</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H138" s="6">
         <v>14</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K138" s="4">
         <v>200211</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M138" s="4">
         <v>968</v>
       </c>
       <c r="N138" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O138" s="4">
         <v>2</v>
@@ -17088,7 +17088,7 @@
         <v>0.45</v>
       </c>
       <c r="AR138" s="64" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AS138" s="65">
         <v>0.17</v>
@@ -17102,13 +17102,13 @@
         <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D139" s="62" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E139" s="4">
         <v>1</v>
@@ -17117,25 +17117,25 @@
         <v>96</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H139" s="6">
         <v>14</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K139" s="4">
         <v>200211</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M139" s="4">
         <v>584</v>
       </c>
       <c r="N139" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O139" s="4">
         <v>3</v>
@@ -17207,7 +17207,7 @@
         <v>0.43</v>
       </c>
       <c r="AR139" s="64" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AS139" s="65">
         <v>0.17</v>
@@ -17221,13 +17221,13 @@
         <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D140" s="62" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E140" s="4">
         <v>1</v>
@@ -17236,25 +17236,25 @@
         <v>96</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H140" s="6">
         <v>14</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K140" s="4">
         <v>200211</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M140" s="4">
         <v>612</v>
       </c>
       <c r="N140" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O140" s="4">
         <v>4</v>
@@ -17279,7 +17279,7 @@
         <v>5</v>
       </c>
       <c r="AA140" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AB140" s="2" t="s">
         <v>66</v>
@@ -17326,7 +17326,7 @@
         <v>0.45</v>
       </c>
       <c r="AR140" s="64" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AS140" s="65">
         <v>0.25</v>
@@ -17340,13 +17340,13 @@
         <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D141" s="62" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E141" s="4">
         <v>1</v>
@@ -17355,25 +17355,25 @@
         <v>96</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H141" s="6">
         <v>14</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K141" s="4">
         <v>200211</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M141" s="4">
         <v>925</v>
       </c>
       <c r="N141" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O141" s="4">
         <v>5</v>
@@ -17398,7 +17398,7 @@
         <v>5</v>
       </c>
       <c r="AA141" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AB141" s="2" t="s">
         <v>29</v>
@@ -17407,10 +17407,10 @@
         <v>30</v>
       </c>
       <c r="AD141" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE141" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF141" s="43"/>
       <c r="AG141" s="43"/>
@@ -17445,7 +17445,7 @@
         <v>0.44</v>
       </c>
       <c r="AR141" s="64" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AS141" s="65">
         <v>0.17</v>
@@ -17459,13 +17459,13 @@
         <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D142" s="62" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E142" s="4">
         <v>1</v>
@@ -17474,25 +17474,25 @@
         <v>96</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H142" s="6">
         <v>14</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K142" s="4">
         <v>200211</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M142" s="4">
         <v>295</v>
       </c>
       <c r="N142" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O142" s="4">
         <v>6</v>
@@ -17517,7 +17517,7 @@
         <v>5</v>
       </c>
       <c r="AA142" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AB142" s="2" t="s">
         <v>35</v>
@@ -17526,10 +17526,10 @@
         <v>36</v>
       </c>
       <c r="AD142" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE142" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF142" s="43"/>
       <c r="AG142" s="43"/>
@@ -17564,7 +17564,7 @@
         <v>0.39</v>
       </c>
       <c r="AR142" s="64" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AS142" s="65">
         <v>0.08</v>
@@ -17578,13 +17578,13 @@
         <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D143" s="62" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E143" s="2">
         <v>1</v>
@@ -17593,28 +17593,28 @@
         <v>96</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H143" s="2">
         <v>13</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K143" s="2">
         <v>200212</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M143" s="2">
         <v>832</v>
       </c>
       <c r="N143" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O143" s="2">
         <v>1</v>
@@ -17639,7 +17639,7 @@
         <v>5</v>
       </c>
       <c r="AA143" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AB143" s="2" t="s">
         <v>40</v>
@@ -17648,10 +17648,10 @@
         <v>41</v>
       </c>
       <c r="AD143" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE143" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF143" s="44"/>
       <c r="AG143" s="44"/>
@@ -17686,7 +17686,7 @@
         <v>0.49</v>
       </c>
       <c r="AR143" s="64" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AS143" s="65">
         <v>0.25</v>
@@ -17700,13 +17700,13 @@
         <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D144" s="62" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E144" s="2">
         <v>1</v>
@@ -17715,28 +17715,28 @@
         <v>96</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H144" s="2">
         <v>13</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K144" s="2">
         <v>200212</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M144" s="2">
         <v>813</v>
       </c>
       <c r="N144" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O144" s="2">
         <v>2</v>
@@ -17761,7 +17761,7 @@
         <v>5</v>
       </c>
       <c r="AA144" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AB144" s="2" t="s">
         <v>45</v>
@@ -17770,10 +17770,10 @@
         <v>46</v>
       </c>
       <c r="AD144" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE144" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF144" s="44"/>
       <c r="AG144" s="44"/>
@@ -17808,7 +17808,7 @@
         <v>0.47</v>
       </c>
       <c r="AR144" s="64" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AS144" s="65">
         <v>0.25</v>
@@ -17822,13 +17822,13 @@
         <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D145" s="62" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E145" s="2">
         <v>1</v>
@@ -17837,28 +17837,28 @@
         <v>96</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H145" s="2">
         <v>13</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K145" s="2">
         <v>200212</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M145" s="2">
         <v>715</v>
       </c>
       <c r="N145" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O145" s="2">
         <v>3</v>
@@ -17883,7 +17883,7 @@
         <v>5</v>
       </c>
       <c r="AA145" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AB145" s="2" t="s">
         <v>50</v>
@@ -17892,10 +17892,10 @@
         <v>51</v>
       </c>
       <c r="AD145" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE145" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF145" s="44"/>
       <c r="AG145" s="44"/>
@@ -17930,7 +17930,7 @@
         <v>0.47</v>
       </c>
       <c r="AR145" s="64" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AS145" s="65">
         <v>0.25</v>
@@ -17944,13 +17944,13 @@
         <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D146" s="62" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E146" s="2">
         <v>1</v>
@@ -17959,28 +17959,28 @@
         <v>96</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H146" s="2">
         <v>13</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K146" s="2">
         <v>200212</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M146" s="2">
         <v>387</v>
       </c>
       <c r="N146" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O146" s="2">
         <v>4</v>
@@ -18005,7 +18005,7 @@
         <v>5</v>
       </c>
       <c r="AA146" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AB146" s="2" t="s">
         <v>56</v>
@@ -18014,10 +18014,10 @@
         <v>57</v>
       </c>
       <c r="AD146" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE146" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF146" s="44"/>
       <c r="AG146" s="44"/>
@@ -18052,7 +18052,7 @@
         <v>0.49</v>
       </c>
       <c r="AR146" s="64" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AS146" s="65">
         <v>0.25</v>
@@ -18066,13 +18066,13 @@
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D147" s="62" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E147" s="2">
         <v>1</v>
@@ -18081,28 +18081,28 @@
         <v>96</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H147" s="2">
         <v>13</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K147" s="2">
         <v>200212</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M147" s="2">
         <v>838</v>
       </c>
       <c r="N147" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O147" s="2">
         <v>5</v>
@@ -18127,7 +18127,7 @@
         <v>5</v>
       </c>
       <c r="AA147" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AB147" s="2" t="s">
         <v>61</v>
@@ -18136,10 +18136,10 @@
         <v>62</v>
       </c>
       <c r="AD147" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE147" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF147" s="44"/>
       <c r="AG147" s="44"/>
@@ -18174,7 +18174,7 @@
         <v>0.46</v>
       </c>
       <c r="AR147" s="64" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AS147" s="65">
         <v>0.25</v>
@@ -18188,13 +18188,13 @@
         <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D148" s="62" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E148" s="2">
         <v>1</v>
@@ -18203,28 +18203,28 @@
         <v>96</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H148" s="2">
         <v>13</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K148" s="2">
         <v>200212</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M148" s="2">
         <v>566</v>
       </c>
       <c r="N148" s="77" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O148" s="2">
         <v>6</v>
@@ -18249,7 +18249,7 @@
         <v>5</v>
       </c>
       <c r="AA148" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AB148" s="2" t="s">
         <v>66</v>
@@ -18258,10 +18258,10 @@
         <v>67</v>
       </c>
       <c r="AD148" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE148" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF148" s="44"/>
       <c r="AG148" s="44"/>
@@ -18296,7 +18296,7 @@
         <v>0.48</v>
       </c>
       <c r="AR148" s="64" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AS148" s="65">
         <v>0.33</v>
